--- a/Gitについて.xlsx
+++ b/Gitについて.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ise4827\Documents\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ise4827\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gitについて" sheetId="1" r:id="rId1"/>
     <sheet name="Gitの使い方(コミット)" sheetId="2" r:id="rId2"/>
-    <sheet name="Gitの使い方(フォークしてコミット)" sheetId="4" r:id="rId3"/>
+    <sheet name="Gitの使い方(フォークしてクローン)" sheetId="4" r:id="rId3"/>
+    <sheet name="Gitの使い方(ブランチ)" sheetId="5" r:id="rId4"/>
+    <sheet name="GitとEclipseの連携" sheetId="6" r:id="rId5"/>
+    <sheet name="Egit(基本操作)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Gitとは</t>
     <phoneticPr fontId="1"/>
@@ -111,19 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Git(分散型)とSubversion(集中型)の違い</t>
-    <rPh sb="4" eb="7">
-      <t>ブンサンガタ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>シュウチュウガタ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>分散型バージョン管理システム</t>
     <rPh sb="0" eb="3">
       <t>ブンサンガタ</t>
@@ -134,13 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目的</t>
-    <rPh sb="0" eb="2">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gitとeclipceを連携すること</t>
     <rPh sb="12" eb="14">
       <t>レンケイ</t>
@@ -152,14 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GitHub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://tech-camp.in/note/4938/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,6 +254,372 @@
   </si>
   <si>
     <t>https://github.com/furutas/test.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記を開く(スクショは別のリポジトリですが、操作は同様です)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数秒待ちます。</t>
+    <rPh sb="0" eb="2">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォークボタンを押します。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のアカウントにリポジトリが複製されます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clone or downloadボタンを押下し、URLをコピー</t>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル→新規/クローンを作成する。</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここまでがフォーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上の欄に5でコピーしたURLを張り付け、TABキーを押せば他は自動で入力される。</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットログが表示される</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prfileブランチを作ってみた</t>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチを押下</t>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業の目的</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitとSubversionの違い</t>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Subversionは少しずつコミットをすると、最終的な変更点がよくわからない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitはコミットをまとめることができる(スカッシュ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Subversionは新たなブランチを作ることができない。</t>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitはできる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitはできる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③Subversionは大人数での開発では、自分の変更した箇所を追うことが難しい。</t>
+    <rPh sb="12" eb="15">
+      <t>オオニンズウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④Subversionではオフライン環境でできる作業が少ない(ない？)</t>
+    <rPh sb="18" eb="20">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitではプルやプッシュこそ無理ではあるが、ローカル環境でのコミットが可能。</t>
+    <rPh sb="14" eb="16">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitは分散型、Subversionは集中型</t>
+    <rPh sb="4" eb="7">
+      <t>ブンサンガタ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シュウチュウガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチの作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitのURLをコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eclipseのウィンドウ&gt;ビューの表示&gt;Gitリポジトリーを選択してGitのリポジトリーウィンドウを作成</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリーウィンドウをアクティブな状態でCtrl＋Vを押す</t>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ&gt;次へ&gt;完了</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したリポジトリを右クリック&gt;プロジェクトのインポート</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ&gt;完了</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでパッケージ・エクスプローラーにプロジェクトが作成されます。</t>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒストリーの表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットしたいクラスやプロジェクトを右クリックチーム&gt;コミット</t>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトを左クリックして再度ヒストリーを表示(リフレッシュボタンでも可)</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットした変更点を右クリックしてプッシュ・コミットを選択</t>
+    <rPh sb="6" eb="9">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ&gt;GitHubのユーザーIDとパスワード入力</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでプッシュ完了</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -336,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,6 +1563,1541 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>468975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558215F4-B6BF-4E17-9F6C-1DB3F13196F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="699653"/>
+          <a:ext cx="12617432" cy="6726888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>131133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD236874-A30E-4148-8082-CCFED1B6CBBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8087256"/>
+          <a:ext cx="12562114" cy="6445677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE84E409-EFF8-48BF-B160-AAA7BC6627E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9383486" y="1687285"/>
+          <a:ext cx="957943" cy="500744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475839</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>45036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0369397A-6563-4480-AE22-E08867D514B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15218227"/>
+          <a:ext cx="12624296" cy="6772409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283039</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BDF863-0D0C-4A9C-9E9E-CCC7F11B7AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024753" y="1752597"/>
+          <a:ext cx="957943" cy="500744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475840</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>45038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4656E6-B8BB-44CC-93D2-4D6AA81D908A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22762029"/>
+          <a:ext cx="12624297" cy="6772409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C355F7C4-A14C-4C0B-ACB8-84372C849171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948543" y="16274143"/>
+          <a:ext cx="957943" cy="500744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E852E0-EF3A-444D-912A-7B03963A29BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9187543" y="26332543"/>
+          <a:ext cx="957943" cy="500744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FE345-45E2-412B-A398-CDA4C14DFD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7478485" y="27214285"/>
+          <a:ext cx="2405743" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>543545</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8AD316-3DB3-485D-842B-51D69FBCDAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="1190" t="1482" r="20645" b="6867"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30338486"/>
+          <a:ext cx="12692002" cy="8371114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604195</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>107668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA1A83-23A3-4424-8988-D439D6AA9CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39188572"/>
+          <a:ext cx="12752652" cy="8467896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC5288B-BF62-40E9-987E-B6A756A29F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="326572" y="30327600"/>
+          <a:ext cx="620486" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E433AF67-8A19-4F0E-9A22-A386BEE165A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="402771" y="30577972"/>
+          <a:ext cx="2764971" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04110C32-A9E5-4C98-B070-34DB7C583445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="566056" y="41779371"/>
+          <a:ext cx="5290458" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587799</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>64123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0694151B-E9F0-4761-A26D-FAA1448652CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48071314"/>
+          <a:ext cx="12736256" cy="8457009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580228</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BCA2BD-E32E-4C2F-BF47-F949F8219E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="475129"/>
+          <a:ext cx="9320816" cy="6292032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609396</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E94A5E-1E9A-4593-9087-C0DB79E04FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7243482"/>
+          <a:ext cx="9349984" cy="5842188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E83D944-34DE-46B6-82F2-78BA8BFE968B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2097741" y="905435"/>
+          <a:ext cx="466165" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6077DA-5596-434A-8659-23DA76D48335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89649" y="8937812"/>
+          <a:ext cx="941292" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFBDB54-1E24-4E26-A22A-125A5FB88599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="266700"/>
+          <a:ext cx="8459694" cy="5525313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>479246</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>218333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCFD6CD-CFAD-4CDE-ABFC-92661240FA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6629400"/>
+          <a:ext cx="6514286" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>110157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953B38E2-1AC6-4CFC-81B0-5B22DDC11255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="536" r="17670" b="21399"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13368957"/>
+          <a:ext cx="9311640" cy="5033344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FB91CD-6386-43AA-A159-2A2281B0DC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-148" t="13796" r="55675" b="4753"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220980" y="304800"/>
+          <a:ext cx="4526281" cy="4678680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554235</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>214377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11163355-78F1-4603-BC1A-B81982F20CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6062063"/>
+          <a:ext cx="10003035" cy="5353714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463110</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>225221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75374AD-8C92-4513-96C5-9748F0E61B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12003741"/>
+          <a:ext cx="6514286" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403059</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>172467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E6735F-6480-447B-B896-76BD264830A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18658115"/>
+          <a:ext cx="11201688" cy="7117552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389965</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A6A4B-F72A-4F08-BCFC-73B9EDD081B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8262257" y="19333029"/>
+          <a:ext cx="226679" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>440057</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C0DA1C-9AAB-4BF6-B190-793B6C41DE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26582914"/>
+          <a:ext cx="6514286" cy="5438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>440057</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>27895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6947138-CB37-49FE-98D8-537795BF4AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32537400"/>
+          <a:ext cx="6514286" cy="5438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1521,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1534,85 +3413,129 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A257"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1634,67 +3557,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1710,21 +3633,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="3">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>